--- a/Literature Table.xlsx
+++ b/Literature Table.xlsx
@@ -4,24 +4,49 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="140" windowWidth="19140" windowHeight="7090"/>
+    <workbookView xWindow="400" yWindow="420" windowWidth="18820" windowHeight="6810"/>
   </bookViews>
   <sheets>
     <sheet name="Literature Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Study on Fog Computing Authentication And Security Issues</t>
+  </si>
+  <si>
+    <t>Sr. no.</t>
+  </si>
+  <si>
+    <t>Referenced Section</t>
+  </si>
+  <si>
+    <t>Evaluation Section</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
   <si>
     <t>Referred link</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Advantage</t>
+  </si>
+  <si>
+    <t>Disadvantage</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>Action required</t>
+  </si>
+  <si>
+    <t>Future Scope</t>
   </si>
   <si>
     <t>Fog computing security: a review of current applications and security solutions</t>
@@ -30,44 +55,50 @@
     <t>https://journalofcloudcomputing.springeropen.com/articles/10.1186/s13677-017-0090-3</t>
   </si>
   <si>
+    <t>• A Fog system will have relatively small computing
+resources (memory, processing and storage) when compared to a Cloud system, but the resources can be increased on-demand;
+• They are able to process data generated from a diverse set of devices;
+• They can be both dense and sparsely distributed based on geographical location;
+• They support Machine-to-Machine communication and wireless connectivity;
+• It is possible for a Fog system to be installed on low specification devices like switches and IP cameras; and
+• One of their main uses is currently for mobile and portable devices.</t>
+  </si>
+  <si>
+    <t>1. Advance Persistent Threats (APT)  
+2. Access Control Issues (ACI)
+3. Account Hijacking (AH) 
+4. Denial of Service (DoS) 
+5. Data Breaches (DB)
+6. Data Loss (DL)
+7. Insecure APIs (IA)
+8. System and Application Vulnerabilities (SAV).
+9. Malicious Insider (MI)y.
+10. Insufficient Due Diligence (IDD).
+11. Abuse and Nefarious Use (ANU).
+12. Shared Technology Issues (STI).
+13. SQL Injection on web optimizing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data can easily be replicated, shared, modified  and deleted by any malicious intermediate or fake external node using a Sybil (forging identities) attack, which  can undermine the CIA of data </t>
+  </si>
+  <si>
+    <t>We can create a unique id for each fog node, and a superior node(admin department, or else) also be their which will authorize the other node to delete, copy, cut, send, and receive data if they want.</t>
+  </si>
+  <si>
+    <t>Fog platforms will be developed and released in the future to provide an enriched and more reliable infrastructure to handle the ever increasing expansion of connected computational devices.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Securing Fog Computing with a Decentralised User Authentication Approach Based on Blockchain </t>
   </si>
   <si>
     <t>https://www.mdpi.com/1424-8220/22/10/3956</t>
-  </si>
-  <si>
-    <t>Sr. no.</t>
-  </si>
-  <si>
-    <t>Referenced Section</t>
-  </si>
-  <si>
-    <t>Advantage</t>
-  </si>
-  <si>
-    <t>Disadvantage</t>
-  </si>
-  <si>
-    <t>Conclusion</t>
-  </si>
-  <si>
-    <t>Action required</t>
-  </si>
-  <si>
-    <t>Future Scope</t>
-  </si>
-  <si>
-    <t>Evaluation Section</t>
-  </si>
-  <si>
-    <t>Study on Fog Computing Authentication And Security Issues</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,27 +115,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="XqndflMyriadPro-Regular"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="URWPalladioL-Bold"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="URWPalladioL-Bold"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -116,11 +132,59 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="XqndflMyriadPro-Regular"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="NvgmpdWarnockPro-Light"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="ClrvgvWarnockPro-Bold"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="YhtvytWarnockPro-Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="URWPalladioL-Bold"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="URWPalladioL-Bold"/>
     </font>
   </fonts>
   <fills count="5">
@@ -129,6 +193,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -142,14 +212,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -165,9 +229,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -191,7 +253,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -209,7 +271,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -224,13 +286,43 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -245,7 +337,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -254,41 +346,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -301,145 +358,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -448,87 +375,98 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,12 +476,112 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFCCFFFF"/>
-    </mruColors>
-  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>29883</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3956050"/>
+          <a:ext cx="7249833" cy="4696385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>941294</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1225177</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>246529</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11893176" y="22412"/>
+          <a:ext cx="1665942" cy="224117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Guided by Prof. D. Naidu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -831,117 +869,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="24.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="23" customWidth="1"/>
     <col min="3" max="3" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.453125" customWidth="1"/>
+    <col min="5" max="5" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.08984375" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="21.5" thickBot="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="17.5" customHeight="1">
+      <c r="A2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="17.5" customHeight="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="13" customFormat="1" ht="184" customHeight="1">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
+      <c r="F4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="17.5" customHeight="1" thickBot="1">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="17.5" customHeight="1" thickBot="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="43" customHeight="1">
-      <c r="A4" s="17">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15" t="s">
+    <row r="5" spans="1:8" s="20" customFormat="1" ht="58.5" thickBot="1">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" ht="58.5" thickBot="1">
-      <c r="A5" s="18">
-        <v>2</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
+      <c r="B5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="B6" s="2"/>
+      <c r="B6" s="21"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="H7" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" location="'Literature Table'!C3" display="https://journalofcloudcomputing.springeropen.com/articles/10.1186/s13677-017-0090-3"/>
@@ -949,29 +1001,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>